--- a/DataTest/Sample.xlsx
+++ b/DataTest/Sample.xlsx
@@ -12,48 +12,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>Datatype</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size(in bytes)</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Primitive</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Non-Primitive</t>
-  </si>
-  <si>
-    <t>No fixed size</t>
-  </si>
-  <si>
-    <t>Zea</t>
-  </si>
-  <si>
-    <t>Is Good</t>
-  </si>
-  <si>
-    <t>Student</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>studentID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>classes</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>sarah</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>c#</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>jay</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>rayan</t>
+  </si>
+  <si>
+    <t>bigData</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>marge</t>
+  </si>
+  <si>
+    <t>Selenium</t>
   </si>
 </sst>
 </file>
@@ -122,63 +143,63 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.0</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.0</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.0</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
